--- a/documents/phân công.xlsx
+++ b/documents/phân công.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Duan1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF428FF6-CEE8-4C83-8C6C-F9CFD17A9CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AF3FA4-A89B-42C6-92C9-C7C8A22242B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3B610532-10B8-4FDB-A2B6-A33620B4431A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>TT</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Thành, Tiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xử lý phân quền </t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -641,12 +644,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,12 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A8B77-AE9B-4550-B623-A268B5B61CA9}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,11 +1026,11 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1039,11 +1039,11 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1052,11 +1052,11 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1065,11 +1065,11 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1078,11 +1078,11 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1091,11 +1091,11 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1104,11 +1104,11 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1117,11 +1117,11 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1130,11 +1130,11 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1143,11 +1143,11 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1156,11 +1156,11 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1169,243 +1169,255 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C19:E23"/>
-    <mergeCell ref="C25:E27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C30:E30"/>
+  <mergeCells count="20">
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C20:E24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C9:E9"/>
@@ -1416,9 +1428,11 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="C11:E14"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
